--- a/DATA/collate_cultivar_data_new/data/kcp_vs_days.xlsx
+++ b/DATA/collate_cultivar_data_new/data/kcp_vs_days.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C397"/>
+  <dimension ref="A1:C406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +466,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0.1291666666666667</v>
+        <v>0.09583333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,7 +477,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.09583333333333334</v>
+        <v>0.1291666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -510,7 +510,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>0.09166666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -521,7 +521,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>0.1333333333333333</v>
+        <v>0.09166666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -565,7 +565,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>0.08399999999999999</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -576,7 +576,7 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>0.148</v>
+        <v>0.08399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -598,7 +598,7 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>0.136</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -609,7 +609,7 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>0.148</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="C21">
-        <v>0.158590308370044</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -631,7 +631,7 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>0.12</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -642,7 +642,7 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>0.096</v>
+        <v>0.158590308370044</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -664,7 +664,7 @@
         <v>33</v>
       </c>
       <c r="C25">
-        <v>0.096</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -675,7 +675,7 @@
         <v>33</v>
       </c>
       <c r="C26">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -697,7 +697,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>0.108</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.064</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -730,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.132</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -796,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.1056603773584906</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -807,7 +807,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.1358490566037736</v>
+        <v>0.1056603773584906</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -818,7 +818,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.1735849056603774</v>
+        <v>0.1169811320754717</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -829,7 +829,7 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <v>0.1132075471698113</v>
+        <v>0.1735849056603774</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -840,7 +840,7 @@
         <v>37</v>
       </c>
       <c r="C41">
-        <v>0.1169811320754717</v>
+        <v>0.1358490566037736</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -862,7 +862,7 @@
         <v>38</v>
       </c>
       <c r="C43">
-        <v>0.1773584905660377</v>
+        <v>0.09056603773584905</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -895,7 +895,7 @@
         <v>38</v>
       </c>
       <c r="C46">
-        <v>0.09056603773584905</v>
+        <v>0.1773584905660377</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -917,7 +917,7 @@
         <v>40</v>
       </c>
       <c r="C48">
-        <v>0.1094339622641509</v>
+        <v>0.1056603773584906</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -928,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="C49">
-        <v>0.1056603773584906</v>
+        <v>0.1094339622641509</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -972,7 +972,7 @@
         <v>44</v>
       </c>
       <c r="C53">
-        <v>0.06071428571428572</v>
+        <v>0.1321428571428571</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -983,7 +983,7 @@
         <v>44</v>
       </c>
       <c r="C54">
-        <v>0.1321428571428571</v>
+        <v>0.06071428571428572</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1060,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="C61">
-        <v>0.08949416342412453</v>
+        <v>0.1417322834645669</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1071,7 +1071,7 @@
         <v>53</v>
       </c>
       <c r="C62">
-        <v>0.1417322834645669</v>
+        <v>0.07480314960629922</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1082,7 +1082,7 @@
         <v>53</v>
       </c>
       <c r="C63">
-        <v>0.07480314960629922</v>
+        <v>0.08949416342412453</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1148,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="C69">
-        <v>0.1490015360983103</v>
+        <v>0.1353711790393013</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1159,7 +1159,7 @@
         <v>60</v>
       </c>
       <c r="C70">
-        <v>0.1353711790393013</v>
+        <v>0.1490015360983103</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>64</v>
       </c>
       <c r="C74">
-        <v>0.1150684931506849</v>
+        <v>0.06782945736434108</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="C75">
-        <v>0.1342465753424658</v>
+        <v>0.1150684931506849</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>64</v>
       </c>
       <c r="C76">
-        <v>0.06782945736434108</v>
+        <v>0.1342465753424658</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>73</v>
       </c>
       <c r="C84">
-        <v>0.06648936170212766</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>73</v>
       </c>
       <c r="C85">
-        <v>0.13</v>
+        <v>0.06648936170212766</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.05226480836236933</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>75</v>
       </c>
       <c r="C88">
-        <v>0.1463414634146341</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1368,7 +1368,7 @@
         <v>75</v>
       </c>
       <c r="C89">
-        <v>0.12</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.12</v>
+        <v>0.05226480836236933</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>75</v>
       </c>
       <c r="C91">
-        <v>0.1428571428571428</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.07000000000000001</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>75</v>
       </c>
       <c r="C94">
-        <v>0.1325</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1434,7 +1434,7 @@
         <v>76</v>
       </c>
       <c r="C95">
-        <v>0.11</v>
+        <v>0.1055276381909548</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>76</v>
       </c>
       <c r="C96">
-        <v>0.1055276381909548</v>
+        <v>0.135678391959799</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="C97">
-        <v>0.135678391959799</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>76</v>
       </c>
       <c r="C98">
-        <v>0.0725</v>
+        <v>0.1920289855072464</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>76</v>
       </c>
       <c r="C99">
-        <v>0.1920289855072464</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>77</v>
       </c>
       <c r="C101">
-        <v>0.1119791666666667</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>77</v>
       </c>
       <c r="C102">
-        <v>0.08333333333333334</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>77</v>
       </c>
       <c r="C103">
-        <v>0.09375</v>
+        <v>0.08333333333333334</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>77</v>
       </c>
       <c r="C104">
-        <v>0.09375</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1555,7 +1555,7 @@
         <v>77</v>
       </c>
       <c r="C106">
-        <v>0.07000000000000001</v>
+        <v>0.1119791666666667</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>79</v>
       </c>
       <c r="C109">
-        <v>0.1389473684210526</v>
+        <v>0.1305263157894737</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1599,7 +1599,7 @@
         <v>79</v>
       </c>
       <c r="C110">
-        <v>0.1305263157894737</v>
+        <v>0.1389473684210526</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>81</v>
       </c>
       <c r="C112">
-        <v>0.05642023346303502</v>
+        <v>0.1011673151750973</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>81</v>
       </c>
       <c r="C113">
-        <v>0.1828442437923251</v>
+        <v>0.05642023346303502</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1643,7 +1643,7 @@
         <v>81</v>
       </c>
       <c r="C114">
-        <v>0.1011673151750973</v>
+        <v>0.1828442437923251</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>84</v>
       </c>
       <c r="C117">
-        <v>0.1386363636363636</v>
+        <v>0.07568807339449542</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>84</v>
       </c>
       <c r="C118">
-        <v>0.07568807339449542</v>
+        <v>0.1386363636363636</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>85</v>
       </c>
       <c r="C119">
-        <v>0.15</v>
+        <v>0.09821428571428573</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>85</v>
       </c>
       <c r="C120">
-        <v>0.1416666666666667</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>85</v>
       </c>
       <c r="C121">
-        <v>0.09821428571428573</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1753,7 +1753,7 @@
         <v>87</v>
       </c>
       <c r="C124">
-        <v>0.08064516129032259</v>
+        <v>0.08628318584070797</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1764,7 +1764,7 @@
         <v>87</v>
       </c>
       <c r="C125">
-        <v>0.08628318584070797</v>
+        <v>0.08064516129032259</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1797,7 +1797,7 @@
         <v>89</v>
       </c>
       <c r="C128">
-        <v>0.1435079726651481</v>
+        <v>0.2936170212765957</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>89</v>
       </c>
       <c r="C131">
-        <v>0.08883826879271071</v>
+        <v>0.1435079726651481</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>89</v>
       </c>
       <c r="C132">
-        <v>0.2936170212765957</v>
+        <v>0.08883826879271071</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1863,7 +1863,7 @@
         <v>90</v>
       </c>
       <c r="C134">
-        <v>0.08461538461538462</v>
+        <v>0.07435897435897436</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>90</v>
       </c>
       <c r="C135">
-        <v>0.07435897435897436</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1918,7 +1918,7 @@
         <v>92</v>
       </c>
       <c r="C139">
-        <v>0.209433962264151</v>
+        <v>0.4166666666666666</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>92</v>
       </c>
       <c r="C140">
-        <v>0.4166666666666666</v>
+        <v>0.1584905660377358</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>92</v>
       </c>
       <c r="C142">
-        <v>0.1584905660377358</v>
+        <v>0.209433962264151</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1962,7 +1962,7 @@
         <v>93</v>
       </c>
       <c r="C143">
-        <v>0.127886323268206</v>
+        <v>0.133214920071048</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>93</v>
       </c>
       <c r="C144">
-        <v>0.133214920071048</v>
+        <v>0.1047957371225577</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1984,7 +1984,7 @@
         <v>93</v>
       </c>
       <c r="C145">
-        <v>0.1047957371225577</v>
+        <v>0.127886323268206</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>95</v>
       </c>
       <c r="C149">
-        <v>0.2075471698113208</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>95</v>
       </c>
       <c r="C151">
-        <v>0.2188679245283019</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>95</v>
       </c>
       <c r="C152">
-        <v>0.1886792452830189</v>
+        <v>0.1811320754716981</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>95</v>
       </c>
       <c r="C154">
-        <v>0.1811320754716981</v>
+        <v>0.2188679245283019</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>96</v>
       </c>
       <c r="C155">
-        <v>0.1245283018867925</v>
+        <v>0.1264150943396226</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>96</v>
       </c>
       <c r="C157">
-        <v>0.1660377358490566</v>
+        <v>0.1003134796238245</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2127,7 +2127,7 @@
         <v>96</v>
       </c>
       <c r="C158">
-        <v>0.1264150943396226</v>
+        <v>0.1003134796238245</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>96</v>
       </c>
       <c r="C159">
-        <v>0.1264150943396226</v>
+        <v>0.1245283018867925</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>96</v>
       </c>
       <c r="C160">
-        <v>0.1003134796238245</v>
+        <v>0.1264150943396226</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2160,7 +2160,7 @@
         <v>96</v>
       </c>
       <c r="C161">
-        <v>0.1003134796238245</v>
+        <v>0.1660377358490566</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2171,7 +2171,7 @@
         <v>97</v>
       </c>
       <c r="C162">
-        <v>0.130188679245283</v>
+        <v>0.08113207547169811</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>97</v>
       </c>
       <c r="C163">
-        <v>0.08113207547169811</v>
+        <v>0.1283018867924529</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2193,7 +2193,7 @@
         <v>97</v>
       </c>
       <c r="C164">
-        <v>0.1283018867924529</v>
+        <v>0.08113207547169811</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2204,7 +2204,7 @@
         <v>97</v>
       </c>
       <c r="C165">
-        <v>0.08113207547169811</v>
+        <v>0.130188679245283</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>98</v>
       </c>
       <c r="C168">
-        <v>0.1528301886792453</v>
+        <v>0.1735849056603774</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>98</v>
       </c>
       <c r="C170">
-        <v>0.1735849056603774</v>
+        <v>0.1528301886792453</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2281,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="C172">
-        <v>0.1758620689655173</v>
+        <v>0.1862068965517241</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2292,7 +2292,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.1862068965517241</v>
+        <v>0.1758620689655173</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2303,7 +2303,7 @@
         <v>100</v>
       </c>
       <c r="C174">
-        <v>0.1862068965517241</v>
+        <v>0.1396551724137931</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2314,7 +2314,7 @@
         <v>100</v>
       </c>
       <c r="C175">
-        <v>0.1396551724137931</v>
+        <v>0.1862068965517241</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>101</v>
       </c>
       <c r="C177">
-        <v>0.2160194174757281</v>
+        <v>0.1868932038834951</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>101</v>
       </c>
       <c r="C178">
-        <v>0.1966019417475728</v>
+        <v>0.2135922330097087</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>101</v>
       </c>
       <c r="C179">
-        <v>0.1603448275862069</v>
+        <v>0.1966019417475728</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2380,7 +2380,7 @@
         <v>101</v>
       </c>
       <c r="C181">
-        <v>0.1868932038834951</v>
+        <v>0.2160194174757281</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>101</v>
       </c>
       <c r="C182">
-        <v>0.2135922330097087</v>
+        <v>0.1603448275862069</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>102</v>
       </c>
       <c r="C183">
-        <v>0.4207650273224043</v>
+        <v>0.1828442437923251</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2413,7 +2413,7 @@
         <v>102</v>
       </c>
       <c r="C184">
-        <v>0.1828442437923251</v>
+        <v>0.2206896551724138</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>102</v>
       </c>
       <c r="C185">
-        <v>0.2212189616252822</v>
+        <v>0.1218961625282167</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>102</v>
       </c>
       <c r="C186">
-        <v>0.2189616252821671</v>
+        <v>0.1218961625282167</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>102</v>
       </c>
       <c r="C188">
-        <v>0.1218961625282167</v>
+        <v>0.2189616252821671</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>102</v>
       </c>
       <c r="C189">
-        <v>0.1218961625282167</v>
+        <v>0.2212189616252822</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>102</v>
       </c>
       <c r="C190">
-        <v>0.2206896551724138</v>
+        <v>0.4207650273224043</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>103</v>
       </c>
       <c r="C194">
-        <v>0.2682926829268293</v>
+        <v>0.1438053097345133</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>103</v>
       </c>
       <c r="C195">
-        <v>0.1438053097345133</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>104</v>
       </c>
       <c r="C197">
-        <v>0.1268382352941176</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>104</v>
       </c>
       <c r="C198">
-        <v>0.1943887775551102</v>
+        <v>0.1268382352941176</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>104</v>
       </c>
       <c r="C200">
-        <v>0.1029411764705882</v>
+        <v>0.1943887775551102</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>118</v>
       </c>
       <c r="C204">
-        <v>0.1889763779527559</v>
+        <v>0.110236220472441</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>118</v>
       </c>
       <c r="C205">
-        <v>0.110236220472441</v>
+        <v>0.1889763779527559</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>123</v>
       </c>
       <c r="C211">
-        <v>0.4084778420038536</v>
+        <v>0.2909441233140655</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>123</v>
       </c>
       <c r="C213">
-        <v>0.2909441233140655</v>
+        <v>0.4084778420038536</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>136</v>
       </c>
       <c r="C221">
-        <v>0.2340425531914894</v>
+        <v>0.2015384615384616</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>136</v>
       </c>
       <c r="C222">
-        <v>0.2015384615384616</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>149</v>
       </c>
       <c r="C229">
-        <v>0.2534992223950233</v>
+        <v>0.73625</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>149</v>
       </c>
       <c r="C230">
-        <v>0.73625</v>
+        <v>0.2534992223950233</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2985,7 +2985,7 @@
         <v>156</v>
       </c>
       <c r="C236">
-        <v>0.3151969981238274</v>
+        <v>0.427807486631016</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3007,7 +3007,7 @@
         <v>156</v>
       </c>
       <c r="C238">
-        <v>0.427807486631016</v>
+        <v>0.3151969981238274</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3040,7 +3040,7 @@
         <v>159</v>
       </c>
       <c r="C241">
-        <v>0.3286445012787724</v>
+        <v>0.4718670076726342</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>159</v>
       </c>
       <c r="C242">
-        <v>0.4718670076726342</v>
+        <v>0.3286445012787724</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3150,7 +3150,7 @@
         <v>171</v>
       </c>
       <c r="C251">
-        <v>0.4428571428571429</v>
+        <v>0.2971428571428572</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>171</v>
       </c>
       <c r="C252">
-        <v>0.2971428571428572</v>
+        <v>0.4428571428571429</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>191</v>
       </c>
       <c r="C264">
-        <v>0.7449438202247191</v>
+        <v>0.4853932584269663</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>191</v>
       </c>
       <c r="C265">
-        <v>0.4853932584269663</v>
+        <v>0.7449438202247191</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>198</v>
       </c>
       <c r="C276">
-        <v>0.7276923076923077</v>
+        <v>0.5258426966292135</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>198</v>
       </c>
       <c r="C279">
-        <v>0.5258426966292135</v>
+        <v>0.7276923076923077</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>205</v>
       </c>
       <c r="C285">
-        <v>0.5772727272727273</v>
+        <v>0.4602272727272727</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>205</v>
       </c>
       <c r="C286">
-        <v>0.4602272727272727</v>
+        <v>0.5772727272727273</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>207</v>
       </c>
       <c r="C287">
-        <v>0.2931818181818182</v>
+        <v>0.4965909090909091</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>207</v>
       </c>
       <c r="C289">
-        <v>0.4965909090909091</v>
+        <v>0.2931818181818182</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>209</v>
       </c>
       <c r="C291">
-        <v>0.6181818181818182</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>209</v>
       </c>
       <c r="C292">
-        <v>0.4204545454545454</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>209</v>
       </c>
       <c r="C293">
-        <v>0.7272727272727273</v>
+        <v>0.6181818181818182</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>209</v>
       </c>
       <c r="C295">
-        <v>0.7272727272727273</v>
+        <v>0.4204545454545454</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3656,7 +3656,7 @@
         <v>210</v>
       </c>
       <c r="C297">
-        <v>0.4020979020979021</v>
+        <v>0.3723776223776224</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3667,7 +3667,7 @@
         <v>210</v>
       </c>
       <c r="C298">
-        <v>0.3636363636363636</v>
+        <v>0.4020979020979021</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3678,7 +3678,7 @@
         <v>210</v>
       </c>
       <c r="C299">
-        <v>0.535593220338983</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3689,7 +3689,7 @@
         <v>210</v>
       </c>
       <c r="C300">
-        <v>0.3723776223776224</v>
+        <v>0.6898305084745763</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3700,7 +3700,7 @@
         <v>210</v>
       </c>
       <c r="C301">
-        <v>0.6898305084745763</v>
+        <v>0.535593220338983</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3722,7 +3722,7 @@
         <v>212</v>
       </c>
       <c r="C303">
-        <v>0.3114942528735632</v>
+        <v>0.3586206896551725</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3733,7 +3733,7 @@
         <v>212</v>
       </c>
       <c r="C304">
-        <v>0.3586206896551725</v>
+        <v>0.3114942528735632</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3777,7 +3777,7 @@
         <v>215</v>
       </c>
       <c r="C308">
-        <v>0.3333333333333334</v>
+        <v>0.2920792079207921</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3788,7 +3788,7 @@
         <v>215</v>
       </c>
       <c r="C309">
-        <v>0.2920792079207921</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3848,914 +3848,1013 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="2">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="B315">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C315">
-        <v>0.7281553398058253</v>
+        <v>0.7030995106035889</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="2">
-        <v>43138</v>
+        <v>43137</v>
       </c>
       <c r="B316">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C316">
-        <v>0.5548281505728314</v>
+        <v>0.7281553398058253</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="2">
-        <v>43142</v>
+        <v>43137</v>
       </c>
       <c r="B317">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C317">
-        <v>0.3435294117647059</v>
+        <v>0.5022970903522205</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="2">
-        <v>43142</v>
+        <v>43138</v>
       </c>
       <c r="B318">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C318">
-        <v>0.7247058823529412</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="2">
-        <v>43142</v>
+        <v>43138</v>
       </c>
       <c r="B319">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C319">
-        <v>0.7247058823529412</v>
+        <v>0.5548281505728314</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="2">
-        <v>43142</v>
+        <v>43140</v>
       </c>
       <c r="B320">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C320">
-        <v>0.571764705882353</v>
+        <v>0.7040998217468806</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="2">
-        <v>43145</v>
+        <v>43142</v>
       </c>
       <c r="B321">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C321">
-        <v>0.3265060240963855</v>
+        <v>0.3435294117647059</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="2">
-        <v>43145</v>
+        <v>43142</v>
       </c>
       <c r="B322">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C322">
-        <v>0.6746987951807228</v>
+        <v>0.7247058823529412</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="2">
-        <v>43147</v>
+        <v>43142</v>
       </c>
       <c r="B323">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C323">
-        <v>0.7493975903614457</v>
+        <v>0.7247058823529412</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="2">
-        <v>43147</v>
+        <v>43142</v>
       </c>
       <c r="B324">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C324">
-        <v>0.7493975903614457</v>
+        <v>0.3553846153846154</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="2">
-        <v>43148</v>
+        <v>43142</v>
       </c>
       <c r="B325">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C325">
-        <v>0.5602409638554217</v>
+        <v>0.571764705882353</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="2">
-        <v>43148</v>
+        <v>43145</v>
       </c>
       <c r="B326">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C326">
-        <v>0.3180722891566265</v>
+        <v>0.3265060240963855</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="2">
-        <v>43148</v>
+        <v>43145</v>
       </c>
       <c r="B327">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C327">
-        <v>0.4963855421686746</v>
+        <v>0.6746987951807228</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="2">
-        <v>43149</v>
+        <v>43147</v>
       </c>
       <c r="B328">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C328">
-        <v>0.2771084337349397</v>
+        <v>0.7493975903614457</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="2">
-        <v>43149</v>
+        <v>43147</v>
       </c>
       <c r="B329">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C329">
-        <v>0.2746987951807228</v>
+        <v>0.7493975903614457</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="2">
-        <v>43149</v>
+        <v>43148</v>
       </c>
       <c r="B330">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C330">
-        <v>0.4421686746987951</v>
+        <v>0.3180722891566265</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="2">
-        <v>43150</v>
+        <v>43148</v>
       </c>
       <c r="B331">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C331">
-        <v>0.28125</v>
+        <v>0.5602409638554217</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="2">
-        <v>43150</v>
+        <v>43148</v>
       </c>
       <c r="B332">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C332">
-        <v>0.28125</v>
+        <v>0.4963855421686746</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="2">
-        <v>43152</v>
+        <v>43149</v>
       </c>
       <c r="B333">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C333">
-        <v>0.26625</v>
+        <v>0.4421686746987951</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="2">
-        <v>43152</v>
+        <v>43149</v>
       </c>
       <c r="B334">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C334">
-        <v>0.32</v>
+        <v>0.2771084337349397</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="2">
-        <v>43153</v>
+        <v>43149</v>
       </c>
       <c r="B335">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C335">
-        <v>0.35375</v>
+        <v>0.2746987951807228</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="2">
-        <v>43153</v>
+        <v>43150</v>
       </c>
       <c r="B336">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C336">
-        <v>0.5287500000000001</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="2">
-        <v>43153</v>
+        <v>43150</v>
       </c>
       <c r="B337">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C337">
-        <v>0.3553846153846154</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="2">
-        <v>43154</v>
+        <v>43152</v>
       </c>
       <c r="B338">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C338">
-        <v>0.2725</v>
+        <v>0.26625</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="2">
-        <v>43155</v>
+        <v>43152</v>
       </c>
       <c r="B339">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C339">
-        <v>0.35125</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="2">
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="B340">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C340">
-        <v>0.2875</v>
+        <v>0.35375</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="2">
-        <v>43156</v>
+        <v>43153</v>
       </c>
       <c r="B341">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C341">
-        <v>0.28125</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="2">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="B342">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C342">
-        <v>0.26</v>
+        <v>0.5287500000000001</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="2">
-        <v>43157</v>
+        <v>43154</v>
       </c>
       <c r="B343">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C343">
-        <v>0.3013333333333333</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="2">
-        <v>43163</v>
+        <v>43155</v>
       </c>
       <c r="B344">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C344">
-        <v>0.26</v>
+        <v>0.35125</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="2">
-        <v>43164</v>
+        <v>43156</v>
       </c>
       <c r="B345">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C345">
-        <v>0.5242857142857142</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="2">
-        <v>43164</v>
+        <v>43156</v>
       </c>
       <c r="B346">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C346">
-        <v>0.4230769230769231</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="2">
-        <v>43164</v>
+        <v>43157</v>
       </c>
       <c r="B347">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C347">
-        <v>0.3071428571428571</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="2">
-        <v>43166</v>
+        <v>43157</v>
       </c>
       <c r="B348">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C348">
-        <v>0.7128571428571429</v>
+        <v>0.3013333333333333</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="2">
-        <v>43168</v>
+        <v>43163</v>
       </c>
       <c r="B349">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C349">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="2">
-        <v>43168</v>
+        <v>43164</v>
       </c>
       <c r="B350">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C350">
-        <v>0.7357142857142858</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="2">
-        <v>43170</v>
+        <v>43164</v>
       </c>
       <c r="B351">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C351">
-        <v>0.06</v>
+        <v>0.5242857142857142</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="2">
-        <v>43170</v>
+        <v>43164</v>
       </c>
       <c r="B352">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C352">
-        <v>0.4328571428571428</v>
+        <v>0.3071428571428571</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="2">
-        <v>43171</v>
+        <v>43166</v>
       </c>
       <c r="B353">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C353">
-        <v>0.1771653543307087</v>
+        <v>0.7128571428571429</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="2">
-        <v>43171</v>
+        <v>43168</v>
       </c>
       <c r="B354">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C354">
-        <v>0.3661538461538462</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="2">
-        <v>43171</v>
+        <v>43168</v>
       </c>
       <c r="B355">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C355">
-        <v>0.2569230769230769</v>
+        <v>0.7357142857142858</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="2">
-        <v>43171</v>
+        <v>43170</v>
       </c>
       <c r="B356">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C356">
-        <v>0.4215384615384616</v>
+        <v>0.4328571428571428</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="2">
-        <v>43172</v>
+        <v>43170</v>
       </c>
       <c r="B357">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C357">
-        <v>0.2553846153846154</v>
+        <v>0.1771653543307087</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="2">
-        <v>43172</v>
+        <v>43171</v>
       </c>
       <c r="B358">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C358">
-        <v>0.132716049382716</v>
+        <v>0.2569230769230769</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="2">
-        <v>43174</v>
+        <v>43171</v>
       </c>
       <c r="B359">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C359">
-        <v>0.6492307692307692</v>
+        <v>0.132716049382716</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="2">
-        <v>43175</v>
+        <v>43171</v>
       </c>
       <c r="B360">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C360">
-        <v>0.6</v>
+        <v>0.3661538461538462</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="2">
-        <v>43176</v>
+        <v>43171</v>
       </c>
       <c r="B361">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C361">
-        <v>0.4476923076923077</v>
+        <v>0.4215384615384616</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="2">
-        <v>43176</v>
+        <v>43172</v>
       </c>
       <c r="B362">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C362">
-        <v>0.4461538461538461</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="2">
-        <v>43177</v>
+        <v>43172</v>
       </c>
       <c r="B363">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C363">
-        <v>0.13</v>
+        <v>0.2553846153846154</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="2">
-        <v>43179</v>
+        <v>43174</v>
       </c>
       <c r="B364">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C364">
-        <v>0.55</v>
+        <v>0.6492307692307692</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="2">
-        <v>43180</v>
+        <v>43175</v>
       </c>
       <c r="B365">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C365">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="2">
-        <v>43182</v>
+        <v>43176</v>
       </c>
       <c r="B366">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C366">
-        <v>0.3189655172413793</v>
+        <v>0.4233870967741936</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="2">
-        <v>43184</v>
+        <v>43176</v>
       </c>
       <c r="B367">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C367">
-        <v>0.5327586206896552</v>
+        <v>0.4476923076923077</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="2">
-        <v>43184</v>
+        <v>43176</v>
       </c>
       <c r="B368">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C368">
-        <v>0.5327586206896552</v>
+        <v>0.4461538461538461</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="2">
-        <v>43184</v>
+        <v>43177</v>
       </c>
       <c r="B369">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C369">
-        <v>0.3948275862068966</v>
+        <v>0.4324324324324324</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="2">
-        <v>43185</v>
+        <v>43177</v>
       </c>
       <c r="B370">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C370">
-        <v>0.6365384615384615</v>
+        <v>0.518850987432675</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="2">
-        <v>43185</v>
+        <v>43178</v>
       </c>
       <c r="B371">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C371">
-        <v>0.4423076923076922</v>
+        <v>0.3315926892950392</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="2">
-        <v>43185</v>
+        <v>43179</v>
       </c>
       <c r="B372">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C372">
-        <v>0.6365384615384615</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="2">
-        <v>43189</v>
+        <v>43179</v>
       </c>
       <c r="B373">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C373">
-        <v>0.3615384615384615</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="2">
-        <v>43192</v>
+        <v>43180</v>
       </c>
       <c r="B374">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C374">
-        <v>0.2489361702127659</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="2">
-        <v>43193</v>
+        <v>43182</v>
       </c>
       <c r="B375">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C375">
-        <v>0.3021276595744681</v>
+        <v>0.3189655172413793</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="2">
-        <v>43195</v>
+        <v>43184</v>
       </c>
       <c r="B376">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C376">
-        <v>0.3319148936170213</v>
+        <v>0.5327586206896552</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="2">
-        <v>43197</v>
+        <v>43184</v>
       </c>
       <c r="B377">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C377">
-        <v>0.3</v>
+        <v>0.3948275862068966</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="2">
-        <v>43197</v>
+        <v>43184</v>
       </c>
       <c r="B378">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C378">
-        <v>0.548936170212766</v>
+        <v>0.5327586206896552</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="2">
-        <v>43198</v>
+        <v>43185</v>
       </c>
       <c r="B379">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C379">
-        <v>0.4148936170212766</v>
+        <v>0.6365384615384615</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="2">
-        <v>43199</v>
+        <v>43185</v>
       </c>
       <c r="B380">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C380">
-        <v>0.258139534883721</v>
+        <v>0.6365384615384615</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="2">
-        <v>43204</v>
+        <v>43185</v>
       </c>
       <c r="B381">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C381">
-        <v>0.2488372093023256</v>
+        <v>0.4423076923076922</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2">
-        <v>43205</v>
+        <v>43189</v>
       </c>
       <c r="B382">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C382">
-        <v>0.3465116279069768</v>
+        <v>0.3615384615384615</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2">
-        <v>43206</v>
+        <v>43192</v>
       </c>
       <c r="B383">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C383">
-        <v>0.3783783783783783</v>
+        <v>0.2489361702127659</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2">
-        <v>43206</v>
+        <v>43193</v>
       </c>
       <c r="B384">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C384">
-        <v>0.5324324324324324</v>
+        <v>0.3021276595744681</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2">
-        <v>43207</v>
+        <v>43195</v>
       </c>
       <c r="B385">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C385">
-        <v>0.2486486486486486</v>
+        <v>0.3319148936170213</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2">
-        <v>43207</v>
+        <v>43197</v>
       </c>
       <c r="B386">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C386">
-        <v>0.2918918918918919</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2">
-        <v>43212</v>
+        <v>43197</v>
       </c>
       <c r="B387">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C387">
-        <v>0.3162162162162162</v>
+        <v>0.548936170212766</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2">
-        <v>43226</v>
+        <v>43198</v>
       </c>
       <c r="B388">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C388">
-        <v>0.1967741935483871</v>
+        <v>0.4148936170212766</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2">
-        <v>43232</v>
+        <v>43199</v>
       </c>
       <c r="B389">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="C389">
-        <v>0.2571428571428572</v>
+        <v>0.258139534883721</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2">
-        <v>43233</v>
+        <v>43204</v>
       </c>
       <c r="B390">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="C390">
-        <v>0.2785714285714286</v>
+        <v>0.2488372093023256</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2">
-        <v>43233</v>
+        <v>43205</v>
       </c>
       <c r="B391">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C391">
-        <v>0.1214285714285714</v>
+        <v>0.3465116279069768</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2">
-        <v>43234</v>
+        <v>43206</v>
       </c>
       <c r="B392">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C392">
-        <v>0.192</v>
+        <v>0.5324324324324324</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2">
-        <v>43234</v>
+        <v>43206</v>
       </c>
       <c r="B393">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C393">
-        <v>0.188</v>
+        <v>0.3783783783783783</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2">
-        <v>43235</v>
+        <v>43207</v>
       </c>
       <c r="B394">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="C394">
-        <v>0.108</v>
+        <v>0.2918918918918919</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2">
-        <v>43235</v>
+        <v>43207</v>
       </c>
       <c r="B395">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="C395">
-        <v>0.216</v>
+        <v>0.2486486486486486</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2">
-        <v>43237</v>
+        <v>43212</v>
       </c>
       <c r="B396">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C396">
-        <v>0.216</v>
+        <v>0.3162162162162162</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B397">
+        <v>309</v>
+      </c>
+      <c r="C397">
+        <v>0.1967741935483871</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>43232</v>
+      </c>
+      <c r="B398">
+        <v>315</v>
+      </c>
+      <c r="C398">
+        <v>0.2571428571428572</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B399">
+        <v>316</v>
+      </c>
+      <c r="C399">
+        <v>0.2785714285714286</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B400">
+        <v>316</v>
+      </c>
+      <c r="C400">
+        <v>0.1214285714285714</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B401">
+        <v>317</v>
+      </c>
+      <c r="C401">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B402">
+        <v>317</v>
+      </c>
+      <c r="C402">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B403">
+        <v>318</v>
+      </c>
+      <c r="C403">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B404">
+        <v>318</v>
+      </c>
+      <c r="C404">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B405">
+        <v>320</v>
+      </c>
+      <c r="C405">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
         <v>43264</v>
       </c>
-      <c r="B397">
+      <c r="B406">
         <v>347</v>
       </c>
-      <c r="C397">
+      <c r="C406">
         <v>0.1173913043478261</v>
       </c>
     </row>
